--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_19_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_19_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1399876.628473852</v>
+        <v>1396269.106794354</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32863755.74973756</v>
+        <v>32863755.74973755</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5658037.598036021</v>
+        <v>5658037.598036016</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3938757.668523274</v>
+        <v>3938757.668523276</v>
       </c>
     </row>
     <row r="11">
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>287.4490784864947</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>291.1487763564896</v>
       </c>
     </row>
     <row r="12">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>101.234774041739</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>133.0352388701786</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1609,22 +1609,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>202.9305789233632</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>54.11398505579771</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>19.13337309039917</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>15.17181822292863</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>282.5110598480877</v>
       </c>
       <c r="F17" t="n">
-        <v>363.4528697661719</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>81.30766987963975</v>
       </c>
       <c r="I19" t="n">
-        <v>48.93277827669088</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2083,19 +2083,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>6.845695121577817</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>109.5540470185009</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>82.17043591154993</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2256,7 +2256,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>235.2357689453457</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>349.0018086638707</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
@@ -2335,7 +2335,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2377,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>133.0485544262023</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -2557,7 +2557,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -2569,7 +2569,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>151.7321259512927</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>74.14716856258377</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -2623,7 +2623,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>234.3101832115948</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>306.1844966567054</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
@@ -2806,10 +2806,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>256.4799845637012</v>
@@ -2857,7 +2857,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
@@ -3043,10 +3043,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>66.45793796611042</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>270.3752278300177</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3207,7 +3207,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>152.1210965128737</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>128.3640563204295</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3429,13 +3429,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.0937685836068</v>
@@ -3444,7 +3444,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>35.77164440601883</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>178.7865964885599</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3505,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>340.6710145143647</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>350.835259719876</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3669,7 +3669,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
@@ -3720,13 +3720,13 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>118.0401481922053</v>
+        <v>169.4866020428173</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>101.3143733729132</v>
       </c>
       <c r="H41" t="n">
         <v>267.0243359415286</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>121.7962278727567</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H42" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>96.26811891357563</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
@@ -3960,10 +3960,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>234.2809555279795</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>18.98847872300996</v>
+        <v>321.937082782981</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H45" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4143,7 +4143,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>100.1093297548532</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>102.0556132165393</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>765.4265856715598</v>
+        <v>921.2588091910869</v>
       </c>
       <c r="C11" t="n">
-        <v>765.4265856715598</v>
+        <v>483.1163363745102</v>
       </c>
       <c r="D11" t="n">
-        <v>765.4265856715598</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="E11" t="n">
-        <v>475.073981139747</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F11" t="n">
         <v>47.20655154895472</v>
@@ -5038,16 +5038,16 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867021</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M11" t="n">
         <v>1131.588690455489</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447736</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V11" t="n">
-        <v>1997.710627381563</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="W11" t="n">
-        <v>1592.855172792596</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="X11" t="n">
-        <v>1173.712709371906</v>
+        <v>1641.648052763358</v>
       </c>
       <c r="Y11" t="n">
-        <v>765.4265856715598</v>
+        <v>1347.558379675995</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P12" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q12" t="n">
         <v>1614.947661807679</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>663.4738450083632</v>
+        <v>727.0944902899324</v>
       </c>
       <c r="C13" t="n">
-        <v>490.9121334915882</v>
+        <v>554.5327787731574</v>
       </c>
       <c r="D13" t="n">
-        <v>490.9121334915882</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="E13" t="n">
-        <v>490.9121334915882</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F13" t="n">
-        <v>314.2050794533444</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G13" t="n">
-        <v>149.4638990658628</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H13" t="n">
         <v>47.20655154895472</v>
@@ -5199,25 +5199,25 @@
         <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K13" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L13" t="n">
-        <v>688.1212571728194</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M13" t="n">
-        <v>818.7256495113487</v>
+        <v>1329.174074623269</v>
       </c>
       <c r="N13" t="n">
-        <v>1388.483364472883</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O13" t="n">
-        <v>1925.918495046426</v>
+        <v>2016.697670932565</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951971</v>
+        <v>2225.94854828594</v>
       </c>
       <c r="T13" t="n">
-        <v>1973.653814855378</v>
+        <v>1983.701324189346</v>
       </c>
       <c r="U13" t="n">
-        <v>1695.267182904121</v>
+        <v>1705.314692238089</v>
       </c>
       <c r="V13" t="n">
-        <v>1408.311674774551</v>
+        <v>1418.35918410852</v>
       </c>
       <c r="W13" t="n">
-        <v>1136.285270360843</v>
+        <v>1146.332779694811</v>
       </c>
       <c r="X13" t="n">
-        <v>890.893515694255</v>
+        <v>1146.332779694811</v>
       </c>
       <c r="Y13" t="n">
-        <v>663.4738450083632</v>
+        <v>918.9131090089195</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>480.9812963906596</v>
+        <v>1525.741883262482</v>
       </c>
       <c r="C14" t="n">
-        <v>480.9812963906596</v>
+        <v>1087.599410445905</v>
       </c>
       <c r="D14" t="n">
-        <v>480.9812963906596</v>
+        <v>651.6896256203495</v>
       </c>
       <c r="E14" t="n">
-        <v>47.20655154895473</v>
+        <v>651.6896256203495</v>
       </c>
       <c r="F14" t="n">
-        <v>47.20655154895473</v>
+        <v>651.6896256203495</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895473</v>
+        <v>252.1869342998266</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
         <v>2043.069798152528</v>
@@ -5302,28 +5302,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T14" t="n">
-        <v>2148.556325916849</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U14" t="n">
-        <v>2093.895734951397</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V14" t="n">
-        <v>1731.278784885223</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="W14" t="n">
-        <v>1326.423330296257</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="X14" t="n">
-        <v>907.2808668755674</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="Y14" t="n">
-        <v>907.2808668755674</v>
+        <v>1952.041453747389</v>
       </c>
     </row>
     <row r="15">
@@ -5336,7 +5336,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
         <v>341.0245550495863</v>
@@ -5348,22 +5348,22 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235849</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J15" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M15" t="n">
         <v>803.387703298788</v>
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>941.8604769596202</v>
+        <v>698.5773814739204</v>
       </c>
       <c r="C16" t="n">
-        <v>769.2987654428451</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="D16" t="n">
-        <v>603.4207726443678</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E16" t="n">
-        <v>584.0941331591162</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F16" t="n">
-        <v>407.3870791208724</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G16" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K16" t="n">
-        <v>202.912315818696</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L16" t="n">
-        <v>385.9158168003456</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M16" t="n">
-        <v>970.0968922186603</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N16" t="n">
-        <v>1539.854607180195</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O16" t="n">
         <v>1657.620488527956</v>
@@ -5460,28 +5460,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S16" t="n">
         <v>2215.901038951971</v>
       </c>
       <c r="T16" t="n">
-        <v>1973.653814855378</v>
+        <v>2200.575970039922</v>
       </c>
       <c r="U16" t="n">
-        <v>1973.653814855378</v>
+        <v>1922.189338088665</v>
       </c>
       <c r="V16" t="n">
-        <v>1686.698306725808</v>
+        <v>1635.233829959095</v>
       </c>
       <c r="W16" t="n">
-        <v>1414.6719023121</v>
+        <v>1363.207425545387</v>
       </c>
       <c r="X16" t="n">
-        <v>1169.280147645512</v>
+        <v>1117.815670878799</v>
       </c>
       <c r="Y16" t="n">
-        <v>941.8604769596202</v>
+        <v>890.3960001929074</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1955.47212285877</v>
+        <v>1634.49094569914</v>
       </c>
       <c r="C17" t="n">
-        <v>1517.329650042193</v>
+        <v>1196.348472882563</v>
       </c>
       <c r="D17" t="n">
-        <v>1517.329650042193</v>
+        <v>760.4386880570073</v>
       </c>
       <c r="E17" t="n">
-        <v>1083.554905200488</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F17" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K17" t="n">
         <v>512.3249274228016</v>
@@ -5539,28 +5539,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="W17" t="n">
-        <v>1955.47212285877</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="X17" t="n">
-        <v>1955.47212285877</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="Y17" t="n">
-        <v>1955.47212285877</v>
+        <v>2060.790516184047</v>
       </c>
     </row>
     <row r="18">
@@ -5588,16 +5588,16 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J18" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L18" t="n">
         <v>551.5786779960906</v>
@@ -5649,55 +5649,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>908.8655996749508</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C19" t="n">
-        <v>736.3038881581757</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="D19" t="n">
-        <v>570.4258953596984</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="E19" t="n">
-        <v>570.4258953596984</v>
+        <v>129.3355110233383</v>
       </c>
       <c r="F19" t="n">
-        <v>393.7188413214546</v>
+        <v>129.3355110233383</v>
       </c>
       <c r="G19" t="n">
-        <v>228.9776609339731</v>
+        <v>129.3355110233383</v>
       </c>
       <c r="H19" t="n">
-        <v>96.63360031328895</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K19" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>419.8232506543494</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M19" t="n">
-        <v>550.4276429928788</v>
+        <v>718.6204178572102</v>
       </c>
       <c r="N19" t="n">
-        <v>1120.185357954413</v>
+        <v>1288.378132818744</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S19" t="n">
         <v>2215.901038951971</v>
@@ -5715,10 +5715,10 @@
         <v>1136.285270360843</v>
       </c>
       <c r="X19" t="n">
-        <v>1136.285270360843</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y19" t="n">
-        <v>908.8655996749508</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1317.401300842975</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C20" t="n">
-        <v>1317.401300842975</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D20" t="n">
-        <v>881.4915160174191</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E20" t="n">
-        <v>874.5766724602698</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F20" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T20" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U20" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V20" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W20" t="n">
-        <v>1743.700871327883</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X20" t="n">
-        <v>1743.700871327883</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="Y20" t="n">
-        <v>1743.700871327883</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="21">
@@ -5810,25 +5810,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5837,10 +5837,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5886,58 +5886,58 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>471.655226289377</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="C22" t="n">
-        <v>471.655226289377</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="D22" t="n">
-        <v>471.655226289377</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="E22" t="n">
-        <v>388.6547859746801</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F22" t="n">
-        <v>211.9477319364363</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545215</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>688.1212571728195</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M22" t="n">
-        <v>1272.302332591134</v>
+        <v>1329.174074623269</v>
       </c>
       <c r="N22" t="n">
-        <v>1539.854607180195</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
         <v>1973.653814855378</v>
@@ -5946,16 +5946,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1408.311674774552</v>
+        <v>1457.655295080539</v>
       </c>
       <c r="W22" t="n">
-        <v>1136.285270360843</v>
+        <v>1185.628890666831</v>
       </c>
       <c r="X22" t="n">
-        <v>890.8935156942559</v>
+        <v>940.237136000243</v>
       </c>
       <c r="Y22" t="n">
-        <v>663.4738450083642</v>
+        <v>712.8174653143512</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1956.995345719243</v>
+        <v>2206.66393246298</v>
       </c>
       <c r="C23" t="n">
-        <v>1604.468266260787</v>
+        <v>1768.521459646403</v>
       </c>
       <c r="D23" t="n">
-        <v>1168.558481435232</v>
+        <v>1332.611674820847</v>
       </c>
       <c r="E23" t="n">
-        <v>1168.558481435232</v>
+        <v>898.8369299791425</v>
       </c>
       <c r="F23" t="n">
-        <v>740.6910518444397</v>
+        <v>470.9695003883502</v>
       </c>
       <c r="G23" t="n">
-        <v>341.1883605239168</v>
+        <v>71.46680906782737</v>
       </c>
       <c r="H23" t="n">
-        <v>71.4668090678272</v>
+        <v>71.46680906782737</v>
       </c>
       <c r="I23" t="n">
-        <v>142.6667593190078</v>
+        <v>142.666759319008</v>
       </c>
       <c r="J23" t="n">
-        <v>735.568222015371</v>
+        <v>735.5682220153711</v>
       </c>
       <c r="K23" t="n">
-        <v>971.839872394592</v>
+        <v>971.8398723945921</v>
       </c>
       <c r="L23" t="n">
         <v>1264.955747258493</v>
@@ -6007,34 +6007,34 @@
         <v>2235.48445194505</v>
       </c>
       <c r="P23" t="n">
-        <v>2540.4298233845</v>
+        <v>2540.429823384509</v>
       </c>
       <c r="Q23" t="n">
-        <v>3287.509804354162</v>
+        <v>3287.509804354171</v>
       </c>
       <c r="R23" t="n">
-        <v>3573.34045339136</v>
+        <v>3573.340453391368</v>
       </c>
       <c r="S23" t="n">
-        <v>3573.34045339136</v>
+        <v>3573.340453391368</v>
       </c>
       <c r="T23" t="n">
-        <v>3573.34045339136</v>
+        <v>3573.340453391368</v>
       </c>
       <c r="U23" t="n">
-        <v>3573.34045339136</v>
+        <v>3573.340453391368</v>
       </c>
       <c r="V23" t="n">
-        <v>3210.723503325186</v>
+        <v>3438.947974172982</v>
       </c>
       <c r="W23" t="n">
-        <v>3210.723503325186</v>
+        <v>3034.092519584015</v>
       </c>
       <c r="X23" t="n">
-        <v>2791.581039904497</v>
+        <v>2614.950056163326</v>
       </c>
       <c r="Y23" t="n">
-        <v>2383.29491620415</v>
+        <v>2206.66393246298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>566.8315625852632</v>
+        <v>566.8315625852634</v>
       </c>
       <c r="C24" t="n">
-        <v>460.3751014219055</v>
+        <v>460.3751014219057</v>
       </c>
       <c r="D24" t="n">
-        <v>365.2848125684588</v>
+        <v>365.284812568459</v>
       </c>
       <c r="E24" t="n">
-        <v>271.1643978954125</v>
+        <v>271.1643978954127</v>
       </c>
       <c r="F24" t="n">
-        <v>187.7805595115741</v>
+        <v>187.7805595115743</v>
       </c>
       <c r="G24" t="n">
-        <v>103.409459101231</v>
+        <v>103.4094591012311</v>
       </c>
       <c r="H24" t="n">
-        <v>71.4668090678272</v>
+        <v>71.46680906782737</v>
       </c>
       <c r="I24" t="n">
-        <v>105.6835452393033</v>
+        <v>105.6835452393035</v>
       </c>
       <c r="J24" t="n">
-        <v>199.5768845857702</v>
+        <v>199.5768845857706</v>
       </c>
       <c r="K24" t="n">
-        <v>360.0555566399404</v>
+        <v>360.0555566399408</v>
       </c>
       <c r="L24" t="n">
-        <v>575.8389355149628</v>
+        <v>575.8389355149632</v>
       </c>
       <c r="M24" t="n">
-        <v>827.6479608176602</v>
+        <v>827.6479608176605</v>
       </c>
       <c r="N24" t="n">
-        <v>1086.12162173898</v>
+        <v>1086.121621738981</v>
       </c>
       <c r="O24" t="n">
         <v>1322.574524553511</v>
@@ -6089,13 +6089,13 @@
         <v>1512.348825118317</v>
       </c>
       <c r="Q24" t="n">
-        <v>1639.207919326551</v>
+        <v>1639.207919326552</v>
       </c>
       <c r="R24" t="n">
         <v>1700.911373752464</v>
       </c>
       <c r="S24" t="n">
-        <v>1656.290343152198</v>
+        <v>1656.290343152199</v>
       </c>
       <c r="T24" t="n">
         <v>1530.198788027851</v>
@@ -6107,13 +6107,13 @@
         <v>1154.811432913732</v>
       </c>
       <c r="W24" t="n">
-        <v>969.4886786469256</v>
+        <v>969.4886786469258</v>
       </c>
       <c r="X24" t="n">
-        <v>814.6212428858056</v>
+        <v>814.6212428858058</v>
       </c>
       <c r="Y24" t="n">
-        <v>688.1354636650264</v>
+        <v>688.1354636650266</v>
       </c>
     </row>
     <row r="25">
@@ -6126,58 +6126,58 @@
         <v>1116.552098742504</v>
       </c>
       <c r="C25" t="n">
-        <v>943.9903872257286</v>
+        <v>943.9903872257288</v>
       </c>
       <c r="D25" t="n">
-        <v>778.1123944272513</v>
+        <v>778.1123944272515</v>
       </c>
       <c r="E25" t="n">
-        <v>608.3543906779886</v>
+        <v>608.3543906779888</v>
       </c>
       <c r="F25" t="n">
-        <v>431.6473366397448</v>
+        <v>431.647336639745</v>
       </c>
       <c r="G25" t="n">
-        <v>266.9061562522633</v>
+        <v>266.9061562522634</v>
       </c>
       <c r="H25" t="n">
-        <v>134.5620956315792</v>
+        <v>134.5620956315793</v>
       </c>
       <c r="I25" t="n">
-        <v>71.4668090678272</v>
+        <v>71.46680906782737</v>
       </c>
       <c r="J25" t="n">
-        <v>130.3724727700103</v>
+        <v>130.3724727700105</v>
       </c>
       <c r="K25" t="n">
-        <v>501.9310279087041</v>
+        <v>231.3483474046373</v>
       </c>
       <c r="L25" t="n">
-        <v>1044.011711294963</v>
+        <v>773.4290307908963</v>
       </c>
       <c r="M25" t="n">
-        <v>1195.324515446006</v>
+        <v>1363.517290310339</v>
       </c>
       <c r="N25" t="n">
-        <v>1765.08223040754</v>
+        <v>1933.275005271873</v>
       </c>
       <c r="O25" t="n">
-        <v>2302.517360981084</v>
+        <v>2470.710135845416</v>
       </c>
       <c r="P25" t="n">
-        <v>2750.793311129109</v>
+        <v>2918.986085993442</v>
       </c>
       <c r="Q25" t="n">
-        <v>2988.753357224096</v>
+        <v>2988.753357224097</v>
       </c>
       <c r="R25" t="n">
-        <v>3005.224449900864</v>
+        <v>3005.224449900865</v>
       </c>
       <c r="S25" t="n">
         <v>2860.797911405099</v>
       </c>
       <c r="T25" t="n">
-        <v>2618.550687308505</v>
+        <v>2618.550687308506</v>
       </c>
       <c r="U25" t="n">
         <v>2340.164055357248</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1369.01876832588</v>
+        <v>1960.426014830631</v>
       </c>
       <c r="C26" t="n">
-        <v>1369.01876832588</v>
+        <v>1522.283542014055</v>
       </c>
       <c r="D26" t="n">
-        <v>933.1089835003243</v>
+        <v>1086.373757188499</v>
       </c>
       <c r="E26" t="n">
-        <v>499.3342386586195</v>
+        <v>652.5990123467941</v>
       </c>
       <c r="F26" t="n">
-        <v>71.4668090678272</v>
+        <v>224.7315827560018</v>
       </c>
       <c r="G26" t="n">
-        <v>71.4668090678272</v>
+        <v>71.46680906782737</v>
       </c>
       <c r="H26" t="n">
-        <v>71.4668090678272</v>
+        <v>71.46680906782737</v>
       </c>
       <c r="I26" t="n">
-        <v>142.6667593190078</v>
+        <v>142.666759319008</v>
       </c>
       <c r="J26" t="n">
-        <v>389.5909067907251</v>
+        <v>300.3135345624532</v>
       </c>
       <c r="K26" t="n">
-        <v>625.8625571699461</v>
+        <v>1184.715296776817</v>
       </c>
       <c r="L26" t="n">
-        <v>918.9784320338467</v>
+        <v>1477.831171640717</v>
       </c>
       <c r="M26" t="n">
-        <v>1245.126320202634</v>
+        <v>1803.979059809505</v>
       </c>
       <c r="N26" t="n">
-        <v>2129.528082416995</v>
+        <v>2135.404361785982</v>
       </c>
       <c r="O26" t="n">
-        <v>2442.483596958288</v>
+        <v>2448.359876327275</v>
       </c>
       <c r="P26" t="n">
-        <v>2709.583888137557</v>
+        <v>3256.08267409616</v>
       </c>
       <c r="Q26" t="n">
-        <v>3456.663869107219</v>
+        <v>3456.663869107228</v>
       </c>
       <c r="R26" t="n">
-        <v>3573.34045339136</v>
+        <v>3573.340453391368</v>
       </c>
       <c r="S26" t="n">
-        <v>3573.34045339136</v>
+        <v>3573.340453391368</v>
       </c>
       <c r="T26" t="n">
-        <v>3361.569201860472</v>
+        <v>3573.340453391368</v>
       </c>
       <c r="U26" t="n">
-        <v>3102.498510381986</v>
+        <v>3573.340453391368</v>
       </c>
       <c r="V26" t="n">
-        <v>3027.602380520791</v>
+        <v>3210.723503325195</v>
       </c>
       <c r="W26" t="n">
-        <v>2622.746925931824</v>
+        <v>2805.868048736228</v>
       </c>
       <c r="X26" t="n">
-        <v>2203.604462511134</v>
+        <v>2386.725585315539</v>
       </c>
       <c r="Y26" t="n">
-        <v>1795.318338810788</v>
+        <v>2386.725585315539</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>566.8315625852632</v>
+        <v>566.8315625852634</v>
       </c>
       <c r="C27" t="n">
-        <v>460.3751014219055</v>
+        <v>460.3751014219057</v>
       </c>
       <c r="D27" t="n">
-        <v>365.2848125684588</v>
+        <v>365.284812568459</v>
       </c>
       <c r="E27" t="n">
-        <v>271.1643978954125</v>
+        <v>271.1643978954127</v>
       </c>
       <c r="F27" t="n">
-        <v>187.7805595115741</v>
+        <v>187.7805595115743</v>
       </c>
       <c r="G27" t="n">
-        <v>103.409459101231</v>
+        <v>103.4094591012311</v>
       </c>
       <c r="H27" t="n">
-        <v>71.4668090678272</v>
+        <v>71.46680906782737</v>
       </c>
       <c r="I27" t="n">
-        <v>105.6835452393033</v>
+        <v>105.6835452393034</v>
       </c>
       <c r="J27" t="n">
         <v>199.5768845857705</v>
       </c>
       <c r="K27" t="n">
-        <v>360.0555566399404</v>
+        <v>360.0555566399407</v>
       </c>
       <c r="L27" t="n">
-        <v>575.8389355149628</v>
+        <v>575.8389355149631</v>
       </c>
       <c r="M27" t="n">
-        <v>827.6479608176602</v>
+        <v>827.6479608176604</v>
       </c>
       <c r="N27" t="n">
         <v>1086.12162173898</v>
@@ -6326,13 +6326,13 @@
         <v>1512.348825118317</v>
       </c>
       <c r="Q27" t="n">
-        <v>1639.207919326551</v>
+        <v>1639.207919326552</v>
       </c>
       <c r="R27" t="n">
         <v>1700.911373752464</v>
       </c>
       <c r="S27" t="n">
-        <v>1656.290343152198</v>
+        <v>1656.290343152199</v>
       </c>
       <c r="T27" t="n">
         <v>1530.198788027851</v>
@@ -6344,13 +6344,13 @@
         <v>1154.811432913732</v>
       </c>
       <c r="W27" t="n">
-        <v>969.4886786469256</v>
+        <v>969.4886786469258</v>
       </c>
       <c r="X27" t="n">
-        <v>814.6212428858056</v>
+        <v>814.6212428858058</v>
       </c>
       <c r="Y27" t="n">
-        <v>688.1354636650264</v>
+        <v>688.1354636650266</v>
       </c>
     </row>
     <row r="28">
@@ -6363,58 +6363,58 @@
         <v>1116.552098742504</v>
       </c>
       <c r="C28" t="n">
-        <v>943.9903872257286</v>
+        <v>943.9903872257288</v>
       </c>
       <c r="D28" t="n">
-        <v>778.1123944272513</v>
+        <v>778.1123944272515</v>
       </c>
       <c r="E28" t="n">
-        <v>608.3543906779886</v>
+        <v>608.3543906779888</v>
       </c>
       <c r="F28" t="n">
-        <v>431.6473366397448</v>
+        <v>431.647336639745</v>
       </c>
       <c r="G28" t="n">
-        <v>266.9061562522633</v>
+        <v>266.9061562522634</v>
       </c>
       <c r="H28" t="n">
-        <v>134.5620956315792</v>
+        <v>134.5620956315793</v>
       </c>
       <c r="I28" t="n">
-        <v>71.4668090678272</v>
+        <v>71.46680906782737</v>
       </c>
       <c r="J28" t="n">
-        <v>216.9521579347002</v>
+        <v>216.9521579347003</v>
       </c>
       <c r="K28" t="n">
         <v>588.510713073394</v>
       </c>
       <c r="L28" t="n">
-        <v>1024.905505152345</v>
+        <v>1130.591396459653</v>
       </c>
       <c r="M28" t="n">
-        <v>1614.993764671787</v>
+        <v>1261.195788798182</v>
       </c>
       <c r="N28" t="n">
-        <v>2184.751479633322</v>
+        <v>1765.082230407541</v>
       </c>
       <c r="O28" t="n">
         <v>2302.517360981084</v>
       </c>
       <c r="P28" t="n">
-        <v>2750.793311129109</v>
+        <v>2750.79331112911</v>
       </c>
       <c r="Q28" t="n">
-        <v>2988.753357224096</v>
+        <v>2988.753357224097</v>
       </c>
       <c r="R28" t="n">
-        <v>3005.224449900864</v>
+        <v>3005.224449900865</v>
       </c>
       <c r="S28" t="n">
         <v>2860.797911405099</v>
       </c>
       <c r="T28" t="n">
-        <v>2618.550687308505</v>
+        <v>2618.550687308506</v>
       </c>
       <c r="U28" t="n">
         <v>2340.164055357248</v>
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1875.417272520954</v>
+        <v>2080.031416987631</v>
       </c>
       <c r="C29" t="n">
-        <v>1638.740319781969</v>
+        <v>1641.888944171055</v>
       </c>
       <c r="D29" t="n">
-        <v>1202.830534956414</v>
+        <v>1332.611674820847</v>
       </c>
       <c r="E29" t="n">
-        <v>769.055790114709</v>
+        <v>898.8369299791425</v>
       </c>
       <c r="F29" t="n">
-        <v>341.1883605239168</v>
+        <v>470.9695003883502</v>
       </c>
       <c r="G29" t="n">
-        <v>341.1883605239168</v>
+        <v>71.46680906782737</v>
       </c>
       <c r="H29" t="n">
-        <v>71.4668090678272</v>
+        <v>71.46680906782737</v>
       </c>
       <c r="I29" t="n">
-        <v>142.6667593190078</v>
+        <v>142.666759319008</v>
       </c>
       <c r="J29" t="n">
-        <v>735.568222015371</v>
+        <v>300.3135345624532</v>
       </c>
       <c r="K29" t="n">
-        <v>971.839872394592</v>
+        <v>1184.715296776817</v>
       </c>
       <c r="L29" t="n">
-        <v>1264.955747258493</v>
+        <v>1477.831171640717</v>
       </c>
       <c r="M29" t="n">
-        <v>1591.10363542728</v>
+        <v>1803.979059809505</v>
       </c>
       <c r="N29" t="n">
-        <v>1922.528937403757</v>
+        <v>2135.404361785982</v>
       </c>
       <c r="O29" t="n">
-        <v>2235.48445194505</v>
+        <v>2448.359876327275</v>
       </c>
       <c r="P29" t="n">
-        <v>2540.4298233845</v>
+        <v>3256.08267409616</v>
       </c>
       <c r="Q29" t="n">
-        <v>3287.509804354162</v>
+        <v>3456.663869107228</v>
       </c>
       <c r="R29" t="n">
-        <v>3573.34045339136</v>
+        <v>3573.340453391368</v>
       </c>
       <c r="S29" t="n">
-        <v>3532.874083606157</v>
+        <v>3532.874083606165</v>
       </c>
       <c r="T29" t="n">
-        <v>3321.102832075269</v>
+        <v>3532.874083606165</v>
       </c>
       <c r="U29" t="n">
-        <v>3062.032140596783</v>
+        <v>3273.803392127679</v>
       </c>
       <c r="V29" t="n">
-        <v>2699.41519053061</v>
+        <v>2911.186442061506</v>
       </c>
       <c r="W29" t="n">
-        <v>2294.559735941643</v>
+        <v>2506.330987472539</v>
       </c>
       <c r="X29" t="n">
-        <v>1875.417272520954</v>
+        <v>2506.330987472539</v>
       </c>
       <c r="Y29" t="n">
-        <v>1875.417272520954</v>
+        <v>2506.330987472539</v>
       </c>
     </row>
     <row r="30">
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>566.8315625852632</v>
+        <v>566.8315625852636</v>
       </c>
       <c r="C30" t="n">
-        <v>460.3751014219055</v>
+        <v>460.3751014219059</v>
       </c>
       <c r="D30" t="n">
-        <v>365.2848125684588</v>
+        <v>365.2848125684591</v>
       </c>
       <c r="E30" t="n">
-        <v>271.1643978954125</v>
+        <v>271.1643978954128</v>
       </c>
       <c r="F30" t="n">
-        <v>187.7805595115741</v>
+        <v>187.7805595115744</v>
       </c>
       <c r="G30" t="n">
-        <v>103.409459101231</v>
+        <v>103.4094591012311</v>
       </c>
       <c r="H30" t="n">
-        <v>71.4668090678272</v>
+        <v>71.46680906782737</v>
       </c>
       <c r="I30" t="n">
-        <v>105.6835452393033</v>
+        <v>105.6835452393037</v>
       </c>
       <c r="J30" t="n">
-        <v>199.5768845857705</v>
+        <v>199.5768845857708</v>
       </c>
       <c r="K30" t="n">
-        <v>360.0555566399407</v>
+        <v>360.0555566399411</v>
       </c>
       <c r="L30" t="n">
-        <v>575.8389355149631</v>
+        <v>575.8389355149633</v>
       </c>
       <c r="M30" t="n">
-        <v>827.6479608176604</v>
+        <v>827.6479608176606</v>
       </c>
       <c r="N30" t="n">
-        <v>1086.12162173898</v>
+        <v>1086.121621738981</v>
       </c>
       <c r="O30" t="n">
         <v>1322.574524553511</v>
@@ -6563,31 +6563,31 @@
         <v>1512.348825118317</v>
       </c>
       <c r="Q30" t="n">
-        <v>1639.207919326551</v>
+        <v>1639.207919326552</v>
       </c>
       <c r="R30" t="n">
-        <v>1700.911373752464</v>
+        <v>1700.911373752465</v>
       </c>
       <c r="S30" t="n">
-        <v>1656.290343152198</v>
+        <v>1656.290343152199</v>
       </c>
       <c r="T30" t="n">
-        <v>1530.198788027851</v>
+        <v>1530.198788027852</v>
       </c>
       <c r="U30" t="n">
-        <v>1353.928950851732</v>
+        <v>1353.928950851733</v>
       </c>
       <c r="V30" t="n">
         <v>1154.811432913732</v>
       </c>
       <c r="W30" t="n">
-        <v>969.4886786469256</v>
+        <v>969.488678646926</v>
       </c>
       <c r="X30" t="n">
-        <v>814.6212428858056</v>
+        <v>814.6212428858059</v>
       </c>
       <c r="Y30" t="n">
-        <v>688.1354636650264</v>
+        <v>688.1354636650267</v>
       </c>
     </row>
     <row r="31">
@@ -6600,58 +6600,58 @@
         <v>1116.552098742504</v>
       </c>
       <c r="C31" t="n">
-        <v>943.9903872257286</v>
+        <v>943.9903872257288</v>
       </c>
       <c r="D31" t="n">
-        <v>778.1123944272513</v>
+        <v>778.1123944272515</v>
       </c>
       <c r="E31" t="n">
-        <v>608.3543906779886</v>
+        <v>608.3543906779888</v>
       </c>
       <c r="F31" t="n">
-        <v>431.6473366397448</v>
+        <v>431.647336639745</v>
       </c>
       <c r="G31" t="n">
-        <v>266.9061562522633</v>
+        <v>266.9061562522634</v>
       </c>
       <c r="H31" t="n">
-        <v>134.5620956315792</v>
+        <v>134.5620956315793</v>
       </c>
       <c r="I31" t="n">
-        <v>71.4668090678272</v>
+        <v>71.46680906782737</v>
       </c>
       <c r="J31" t="n">
-        <v>216.9521579347002</v>
+        <v>216.9521579347003</v>
       </c>
       <c r="K31" t="n">
-        <v>410.6624665106465</v>
+        <v>588.510713073394</v>
       </c>
       <c r="L31" t="n">
-        <v>952.7431498969054</v>
+        <v>1130.591396459653</v>
       </c>
       <c r="M31" t="n">
-        <v>1542.831409416348</v>
+        <v>1261.195788798182</v>
       </c>
       <c r="N31" t="n">
-        <v>2112.589124377882</v>
+        <v>1830.953503759716</v>
       </c>
       <c r="O31" t="n">
-        <v>2650.024254951425</v>
+        <v>2368.38863433326</v>
       </c>
       <c r="P31" t="n">
-        <v>2750.793311129109</v>
+        <v>2816.664584481284</v>
       </c>
       <c r="Q31" t="n">
-        <v>2988.753357224096</v>
+        <v>2988.753357224097</v>
       </c>
       <c r="R31" t="n">
-        <v>3005.224449900864</v>
+        <v>3005.224449900865</v>
       </c>
       <c r="S31" t="n">
         <v>2860.797911405099</v>
       </c>
       <c r="T31" t="n">
-        <v>2618.550687308505</v>
+        <v>2618.550687308506</v>
       </c>
       <c r="U31" t="n">
         <v>2340.164055357248</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2040.475699093513</v>
+        <v>1874.290471411255</v>
       </c>
       <c r="C32" t="n">
-        <v>1602.333226276937</v>
+        <v>1436.147998594678</v>
       </c>
       <c r="D32" t="n">
-        <v>1602.333226276937</v>
+        <v>1000.238213769123</v>
       </c>
       <c r="E32" t="n">
-        <v>1168.558481435232</v>
+        <v>566.463468927418</v>
       </c>
       <c r="F32" t="n">
-        <v>740.6910518444397</v>
+        <v>138.5960393366258</v>
       </c>
       <c r="G32" t="n">
-        <v>341.1883605239168</v>
+        <v>138.5960393366258</v>
       </c>
       <c r="H32" t="n">
-        <v>71.4668090678272</v>
+        <v>71.46680906782737</v>
       </c>
       <c r="I32" t="n">
-        <v>142.6667593190078</v>
+        <v>142.666759319008</v>
       </c>
       <c r="J32" t="n">
-        <v>300.3135345624531</v>
+        <v>735.5682220153711</v>
       </c>
       <c r="K32" t="n">
-        <v>536.585184941674</v>
+        <v>971.839872394592</v>
       </c>
       <c r="L32" t="n">
-        <v>829.7010598055747</v>
+        <v>1264.955747258493</v>
       </c>
       <c r="M32" t="n">
-        <v>1155.848947974362</v>
+        <v>1591.10363542728</v>
       </c>
       <c r="N32" t="n">
-        <v>2040.250710188723</v>
+        <v>1922.528937403757</v>
       </c>
       <c r="O32" t="n">
-        <v>2924.652472403085</v>
+        <v>2235.48445194505</v>
       </c>
       <c r="P32" t="n">
-        <v>3256.082674096152</v>
+        <v>2540.429823384509</v>
       </c>
       <c r="Q32" t="n">
-        <v>3456.663869107219</v>
+        <v>3287.509804354171</v>
       </c>
       <c r="R32" t="n">
-        <v>3573.34045339136</v>
+        <v>3573.340453391368</v>
       </c>
       <c r="S32" t="n">
-        <v>3573.34045339136</v>
+        <v>3532.874083606165</v>
       </c>
       <c r="T32" t="n">
-        <v>3361.569201860472</v>
+        <v>3532.874083606165</v>
       </c>
       <c r="U32" t="n">
-        <v>3102.498510381986</v>
+        <v>3532.874083606165</v>
       </c>
       <c r="V32" t="n">
-        <v>2739.881560315813</v>
+        <v>3532.874083606165</v>
       </c>
       <c r="W32" t="n">
-        <v>2739.881560315813</v>
+        <v>3128.018629017199</v>
       </c>
       <c r="X32" t="n">
-        <v>2466.775269578421</v>
+        <v>2708.87616559651</v>
       </c>
       <c r="Y32" t="n">
-        <v>2466.775269578421</v>
+        <v>2300.590041896163</v>
       </c>
     </row>
     <row r="33">
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>566.8315625852632</v>
+        <v>566.8315625852634</v>
       </c>
       <c r="C33" t="n">
-        <v>460.3751014219055</v>
+        <v>460.3751014219057</v>
       </c>
       <c r="D33" t="n">
-        <v>365.2848125684588</v>
+        <v>365.284812568459</v>
       </c>
       <c r="E33" t="n">
-        <v>271.1643978954125</v>
+        <v>271.1643978954127</v>
       </c>
       <c r="F33" t="n">
-        <v>187.7805595115741</v>
+        <v>187.7805595115743</v>
       </c>
       <c r="G33" t="n">
-        <v>103.409459101231</v>
+        <v>103.4094591012311</v>
       </c>
       <c r="H33" t="n">
-        <v>71.4668090678272</v>
+        <v>71.46680906782737</v>
       </c>
       <c r="I33" t="n">
-        <v>105.6835452393033</v>
+        <v>105.6835452393037</v>
       </c>
       <c r="J33" t="n">
-        <v>199.5768845857705</v>
+        <v>199.5768845857708</v>
       </c>
       <c r="K33" t="n">
-        <v>360.0555566399407</v>
+        <v>360.055556639941</v>
       </c>
       <c r="L33" t="n">
-        <v>575.8389355149631</v>
+        <v>575.8389355149633</v>
       </c>
       <c r="M33" t="n">
-        <v>827.6479608176604</v>
+        <v>827.6479608176606</v>
       </c>
       <c r="N33" t="n">
-        <v>1086.12162173898</v>
+        <v>1086.121621738981</v>
       </c>
       <c r="O33" t="n">
         <v>1322.574524553511</v>
@@ -6800,13 +6800,13 @@
         <v>1512.348825118317</v>
       </c>
       <c r="Q33" t="n">
-        <v>1639.207919326551</v>
+        <v>1639.207919326552</v>
       </c>
       <c r="R33" t="n">
         <v>1700.911373752464</v>
       </c>
       <c r="S33" t="n">
-        <v>1656.290343152198</v>
+        <v>1656.290343152199</v>
       </c>
       <c r="T33" t="n">
         <v>1530.198788027851</v>
@@ -6818,13 +6818,13 @@
         <v>1154.811432913732</v>
       </c>
       <c r="W33" t="n">
-        <v>969.4886786469256</v>
+        <v>969.4886786469258</v>
       </c>
       <c r="X33" t="n">
-        <v>814.6212428858056</v>
+        <v>814.6212428858058</v>
       </c>
       <c r="Y33" t="n">
-        <v>688.1354636650264</v>
+        <v>688.1354636650266</v>
       </c>
     </row>
     <row r="34">
@@ -6837,58 +6837,58 @@
         <v>1116.552098742504</v>
       </c>
       <c r="C34" t="n">
-        <v>943.9903872257286</v>
+        <v>943.9903872257288</v>
       </c>
       <c r="D34" t="n">
-        <v>778.1123944272513</v>
+        <v>778.1123944272515</v>
       </c>
       <c r="E34" t="n">
-        <v>608.3543906779886</v>
+        <v>608.3543906779888</v>
       </c>
       <c r="F34" t="n">
-        <v>431.6473366397448</v>
+        <v>431.647336639745</v>
       </c>
       <c r="G34" t="n">
-        <v>266.9061562522633</v>
+        <v>266.9061562522634</v>
       </c>
       <c r="H34" t="n">
-        <v>134.5620956315792</v>
+        <v>134.5620956315793</v>
       </c>
       <c r="I34" t="n">
-        <v>71.4668090678272</v>
+        <v>71.46680906782737</v>
       </c>
       <c r="J34" t="n">
-        <v>216.9521579347002</v>
+        <v>130.3724727700105</v>
       </c>
       <c r="K34" t="n">
-        <v>313.7522585022584</v>
+        <v>482.8248217660866</v>
       </c>
       <c r="L34" t="n">
-        <v>855.8329418885173</v>
+        <v>1024.905505152346</v>
       </c>
       <c r="M34" t="n">
-        <v>1445.92120140796</v>
+        <v>1614.993764671788</v>
       </c>
       <c r="N34" t="n">
-        <v>1933.275005271872</v>
+        <v>2184.751479633323</v>
       </c>
       <c r="O34" t="n">
-        <v>2470.710135845415</v>
+        <v>2302.517360981084</v>
       </c>
       <c r="P34" t="n">
-        <v>2918.98608599344</v>
+        <v>2750.79331112911</v>
       </c>
       <c r="Q34" t="n">
-        <v>2988.753357224096</v>
+        <v>2988.753357224097</v>
       </c>
       <c r="R34" t="n">
-        <v>3005.224449900864</v>
+        <v>3005.224449900865</v>
       </c>
       <c r="S34" t="n">
         <v>2860.797911405099</v>
       </c>
       <c r="T34" t="n">
-        <v>2618.550687308505</v>
+        <v>2618.550687308506</v>
       </c>
       <c r="U34" t="n">
         <v>2340.164055357248</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1474.419173756937</v>
+        <v>1474.419173756936</v>
       </c>
       <c r="C35" t="n">
-        <v>1036.27670094036</v>
+        <v>1474.419173756936</v>
       </c>
       <c r="D35" t="n">
-        <v>600.3669161148046</v>
+        <v>1038.509388931381</v>
       </c>
       <c r="E35" t="n">
-        <v>446.7092428694776</v>
+        <v>604.7346440896758</v>
       </c>
       <c r="F35" t="n">
-        <v>446.7092428694776</v>
+        <v>176.8672144988836</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895473</v>
+        <v>176.8672144988836</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I35" t="n">
         <v>118.4065018001353</v>
@@ -6940,19 +6940,19 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
         <v>2043.069798152528</v>
@@ -6961,22 +6961,22 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T35" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U35" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V35" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W35" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X35" t="n">
         <v>1900.718744241844</v>
@@ -7010,16 +7010,16 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J36" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L36" t="n">
         <v>551.5786779960906</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.291841223631</v>
+        <v>579.9487906376474</v>
       </c>
       <c r="C37" t="n">
-        <v>919.7301297068562</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="D37" t="n">
-        <v>753.852136908379</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="E37" t="n">
-        <v>584.0941331591162</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F37" t="n">
         <v>407.3870791208724</v>
@@ -7092,10 +7092,10 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J37" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K37" t="n">
         <v>477.6707703898316</v>
@@ -7107,40 +7107,40 @@
         <v>1150.35584611462</v>
       </c>
       <c r="N37" t="n">
-        <v>1288.378132818745</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O37" t="n">
-        <v>1825.813263392288</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540313</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.901038951971</v>
+        <v>2324.194603300242</v>
       </c>
       <c r="T37" t="n">
-        <v>2215.901038951971</v>
+        <v>2081.947379203649</v>
       </c>
       <c r="U37" t="n">
-        <v>1937.514407000714</v>
+        <v>1803.560747252392</v>
       </c>
       <c r="V37" t="n">
-        <v>1937.514407000714</v>
+        <v>1516.605239122822</v>
       </c>
       <c r="W37" t="n">
-        <v>1756.921885295098</v>
+        <v>1244.578834709114</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.53013062851</v>
+        <v>999.1870800425263</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.110459942618</v>
+        <v>771.7674093566345</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2016.215441574641</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="C38" t="n">
-        <v>1578.072968758064</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="D38" t="n">
-        <v>1578.072968758064</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E38" t="n">
-        <v>1144.298223916359</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F38" t="n">
         <v>716.4307943255671</v>
@@ -7168,7 +7168,7 @@
         <v>316.9281030050443</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I38" t="n">
         <v>118.4065018001353</v>
@@ -7177,19 +7177,19 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M38" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P38" t="n">
         <v>2043.069798152528</v>
@@ -7198,28 +7198,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W38" t="n">
-        <v>2016.215441574641</v>
+        <v>1915.005753073566</v>
       </c>
       <c r="X38" t="n">
-        <v>2016.215441574641</v>
+        <v>1560.626702851469</v>
       </c>
       <c r="Y38" t="n">
-        <v>2016.215441574641</v>
+        <v>1152.340579151123</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I39" t="n">
         <v>81.42328772043084</v>
@@ -7256,22 +7256,22 @@
         <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M39" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P39" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q39" t="n">
         <v>1614.947661807679</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1029.196554659879</v>
+        <v>859.4385509106165</v>
       </c>
       <c r="C40" t="n">
-        <v>856.6348431431041</v>
+        <v>686.8768393938415</v>
       </c>
       <c r="D40" t="n">
-        <v>690.7568503446269</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="E40" t="n">
         <v>520.9988465953642</v>
@@ -7326,25 +7326,25 @@
         <v>179.5506121696388</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J40" t="n">
-        <v>192.6919004158277</v>
+        <v>116.6355901513728</v>
       </c>
       <c r="K40" t="n">
-        <v>564.2504555545214</v>
+        <v>488.1941452900665</v>
       </c>
       <c r="L40" t="n">
-        <v>688.1212571728194</v>
+        <v>1030.274828676326</v>
       </c>
       <c r="M40" t="n">
-        <v>818.7256495113488</v>
+        <v>1160.879221014855</v>
       </c>
       <c r="N40" t="n">
-        <v>1288.378132818745</v>
+        <v>1288.378132818744</v>
       </c>
       <c r="O40" t="n">
         <v>1825.813263392288</v>
@@ -7356,28 +7356,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T40" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U40" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.461248478467</v>
+        <v>1524.068594982083</v>
       </c>
       <c r="W40" t="n">
-        <v>1448.434844064758</v>
+        <v>1524.068594982083</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.434844064758</v>
+        <v>1278.676840315495</v>
       </c>
       <c r="Y40" t="n">
-        <v>1221.015173378866</v>
+        <v>1051.257169629604</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1580.208008741915</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="C41" t="n">
-        <v>1580.208008741915</v>
+        <v>855.1756387123303</v>
       </c>
       <c r="D41" t="n">
-        <v>1144.298223916359</v>
+        <v>419.2658538867748</v>
       </c>
       <c r="E41" t="n">
-        <v>1144.298223916359</v>
+        <v>419.2658538867748</v>
       </c>
       <c r="F41" t="n">
-        <v>716.4307943255671</v>
+        <v>419.2658538867748</v>
       </c>
       <c r="G41" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I41" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M41" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P41" t="n">
         <v>2043.069798152528</v>
@@ -7435,28 +7435,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T41" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U41" t="n">
-        <v>2108.089956131646</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V41" t="n">
-        <v>2108.089956131646</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W41" t="n">
-        <v>1703.234501542679</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="X41" t="n">
-        <v>1580.208008741915</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="Y41" t="n">
-        <v>1580.208008741915</v>
+        <v>1293.318111528907</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D42" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I42" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043167</v>
       </c>
       <c r="J42" t="n">
-        <v>858.9930882810423</v>
+        <v>175.3166270668988</v>
       </c>
       <c r="K42" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210689</v>
       </c>
       <c r="L42" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M42" t="n">
-        <v>1487.064164512932</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N42" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S42" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T42" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U42" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V42" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>663.4738450083632</v>
+        <v>896.8524940391951</v>
       </c>
       <c r="C43" t="n">
-        <v>490.9121334915882</v>
+        <v>724.29078252242</v>
       </c>
       <c r="D43" t="n">
-        <v>490.9121334915882</v>
+        <v>558.4127897239428</v>
       </c>
       <c r="E43" t="n">
-        <v>321.1541297423254</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F43" t="n">
-        <v>144.4470757040816</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>1106.33113894078</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M43" t="n">
-        <v>1236.93553127931</v>
+        <v>1329.174074623269</v>
       </c>
       <c r="N43" t="n">
-        <v>1364.434443083199</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O43" t="n">
-        <v>1901.869573656742</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T43" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1408.311674774551</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W43" t="n">
-        <v>1136.285270360843</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="X43" t="n">
-        <v>890.893515694255</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="Y43" t="n">
-        <v>663.4738450083632</v>
+        <v>1088.671112758182</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>446.7092428694776</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C44" t="n">
-        <v>446.7092428694776</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D44" t="n">
-        <v>446.7092428694776</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E44" t="n">
-        <v>446.7092428694776</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F44" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L44" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
         <v>1775.969506973259</v>
@@ -7672,28 +7672,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T44" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>2060.790516184048</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V44" t="n">
-        <v>1698.173566117874</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W44" t="n">
-        <v>1293.318111528907</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X44" t="n">
-        <v>874.1756481082181</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="Y44" t="n">
-        <v>465.8895244078715</v>
+        <v>2108.089956131646</v>
       </c>
     </row>
     <row r="45">
@@ -7721,22 +7721,22 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043167</v>
       </c>
       <c r="J45" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668988</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210689</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M45" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
@@ -7782,55 +7782,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>663.4738450083632</v>
+        <v>927.5506608361497</v>
       </c>
       <c r="C46" t="n">
-        <v>490.9121334915882</v>
+        <v>754.9889493193747</v>
       </c>
       <c r="D46" t="n">
-        <v>325.0341406931109</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="E46" t="n">
-        <v>223.9136055871985</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J46" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K46" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>1106.33113894078</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M46" t="n">
-        <v>1236.93553127931</v>
+        <v>1329.174074623269</v>
       </c>
       <c r="N46" t="n">
-        <v>1364.434443083199</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S46" t="n">
         <v>2215.901038951971</v>
@@ -7842,16 +7842,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1408.311674774551</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="W46" t="n">
-        <v>1136.285270360843</v>
+        <v>1592.180704907616</v>
       </c>
       <c r="X46" t="n">
-        <v>890.893515694255</v>
+        <v>1346.788950241029</v>
       </c>
       <c r="Y46" t="n">
-        <v>663.4738450083632</v>
+        <v>1119.369279555137</v>
       </c>
     </row>
   </sheetData>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>458.1582657371566</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>80.00897722411241</v>
+        <v>158.2045317475395</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9087,19 +9087,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>59.72999935692076</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>264.6463123855401</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9327,10 +9327,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>93.97993254278316</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>263.8716243249363</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -9342,7 +9342,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371566</v>
       </c>
       <c r="N22" t="n">
-        <v>141.4680432173445</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>158.2045317475392</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>38.22735379816322</v>
+        <v>38.22735379817186</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9798,13 +9798,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>4.217953603099659</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>20.91758768940758</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -9816,7 +9816,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>90.17916386694145</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>654.6768806415585</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9886,16 +9886,16 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>558.5620810483679</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>546.0833399895114</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10038,16 +10038,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>315.6807984451038</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>380.1894240459287</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>654.6768806415585</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>38.22735379816322</v>
+        <v>546.0833399895114</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10272,13 +10272,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>97.88909899837176</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10287,10 +10287,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>103.355052032482</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10360,19 +10360,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>558.5620810483679</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>577.2184319929988</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>64.97970758969495</v>
+        <v>38.22735379817186</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>258.2345943722404</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10518,16 +10518,16 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
-        <v>363.489789959619</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10755,7 +10755,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>10.62967161639949</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
@@ -10764,7 +10764,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>10.62967161639926</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,19 +10980,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>10.62967161639892</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>345.6096681853601</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>458.1582657371567</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475397</v>
       </c>
       <c r="P43" t="n">
-        <v>104.3008170116721</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>458.1582657371567</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>177.1920849464598</v>
+        <v>158.2045317475397</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>141.9879189067931</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>395.5076644073176</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>113.0544861068535</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>29.78584597273824</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>9.94703424062925</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>64.09375701816546</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>202.3659995079035</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>148.9270506213709</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>224.6529336326988</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>146.9259375452</v>
       </c>
       <c r="F17" t="n">
-        <v>60.13588552871244</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>49.71295013483751</v>
       </c>
       <c r="I19" t="n">
-        <v>13.53155542142355</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,19 +23971,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>422.5913022717099</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
         <v>256.4799845637012</v>
@@ -24031,13 +24031,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>294.6492154448422</v>
       </c>
     </row>
     <row r="21">
@@ -24135,7 +24135,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>85.88998780022018</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811443</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>48.8501841029281</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>84.75923942454017</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24265,10 +24265,10 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>225.9422261393095</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>243.7755384560249</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -24496,13 +24496,13 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>284.843612002928</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>199.4508648768161</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>125.3661903205945</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>200.5663979754182</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>144.5758109564647</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25156,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>277.3159008804141</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>138.6602796210991</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>107.210628704789</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>90.51954388101151</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25393,16 +25393,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
@@ -25453,13 +25453,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>60.13588552871232</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>64.11577906660636</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>166.0458048560686</v>
+        <v>114.5993510054566</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,10 +25639,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>294.1932910344044</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>293.1548109137257</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>66.82564967003113</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>8.656881591942152</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>403.0480960570487</v>
+        <v>100.0994919970777</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>67.95109395691689</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>167.2505271530321</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>268611.0772535947</v>
+        <v>268611.0772535946</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>268611.0772535947</v>
+        <v>268611.0772535946</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>407898.3757030193</v>
+        <v>407898.3757030203</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>407898.3757030194</v>
+        <v>407898.3757030201</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>407898.3757030194</v>
+        <v>407898.3757030203</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>407898.3757030194</v>
+        <v>407898.3757030203</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>268611.0772535947</v>
+        <v>268611.0772535946</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>268611.0772535946</v>
+        <v>268611.0772535947</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>268611.0772535946</v>
+        <v>268611.0772535947</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>497215.4012453022</v>
+        <v>497215.4012453021</v>
       </c>
       <c r="C2" t="n">
         <v>497215.4012453022</v>
@@ -26322,40 +26322,40 @@
         <v>497215.4012453022</v>
       </c>
       <c r="E2" t="n">
-        <v>298865.3854715528</v>
+        <v>298865.3854715529</v>
       </c>
       <c r="F2" t="n">
-        <v>298865.385471553</v>
+        <v>298865.3854715529</v>
       </c>
       <c r="G2" t="n">
         <v>298865.3854715529</v>
       </c>
       <c r="H2" t="n">
-        <v>298865.385471553</v>
+        <v>298865.3854715529</v>
       </c>
       <c r="I2" t="n">
-        <v>401868.9334190758</v>
+        <v>401868.9334190764</v>
       </c>
       <c r="J2" t="n">
-        <v>401868.9334190759</v>
+        <v>401868.9334190764</v>
       </c>
       <c r="K2" t="n">
-        <v>401868.9334190759</v>
+        <v>401868.9334190765</v>
       </c>
       <c r="L2" t="n">
-        <v>401868.9334190758</v>
+        <v>401868.9334190764</v>
       </c>
       <c r="M2" t="n">
-        <v>298865.385471553</v>
+        <v>298865.3854715529</v>
       </c>
       <c r="N2" t="n">
+        <v>298865.3854715528</v>
+      </c>
+      <c r="O2" t="n">
+        <v>298865.3854715528</v>
+      </c>
+      <c r="P2" t="n">
         <v>298865.3854715529</v>
-      </c>
-      <c r="O2" t="n">
-        <v>298865.3854715529</v>
-      </c>
-      <c r="P2" t="n">
-        <v>298865.385471553</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>80641.39924595105</v>
+        <v>80641.39924595164</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71478.85321840769</v>
+        <v>71478.85321840721</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
         <v>17402.73254778061</v>
@@ -26432,22 +26432,22 @@
         <v>17402.73254778061</v>
       </c>
       <c r="G4" t="n">
-        <v>17402.73254778062</v>
+        <v>17402.7325477806</v>
       </c>
       <c r="H4" t="n">
-        <v>17402.73254778062</v>
+        <v>17402.7325477806</v>
       </c>
       <c r="I4" t="n">
-        <v>70116.14052118252</v>
+        <v>70116.14052118285</v>
       </c>
       <c r="J4" t="n">
-        <v>70116.1405211825</v>
+        <v>70116.14052118285</v>
       </c>
       <c r="K4" t="n">
-        <v>70116.14052118252</v>
+        <v>70116.14052118285</v>
       </c>
       <c r="L4" t="n">
-        <v>70116.14052118253</v>
+        <v>70116.14052118285</v>
       </c>
       <c r="M4" t="n">
         <v>17402.73254778061</v>
@@ -26456,10 +26456,10 @@
         <v>17402.73254778061</v>
       </c>
       <c r="O4" t="n">
-        <v>17402.73254778061</v>
+        <v>17402.73254778063</v>
       </c>
       <c r="P4" t="n">
-        <v>17402.73254778062</v>
+        <v>17402.73254778063</v>
       </c>
     </row>
     <row r="5">
@@ -26487,19 +26487,19 @@
         <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
-        <v>64488.87692398089</v>
+        <v>64488.87692398101</v>
       </c>
       <c r="J5" t="n">
-        <v>64488.87692398089</v>
+        <v>64488.87692398101</v>
       </c>
       <c r="K5" t="n">
-        <v>64488.87692398089</v>
+        <v>64488.87692398101</v>
       </c>
       <c r="L5" t="n">
-        <v>64488.87692398089</v>
+        <v>64488.87692398101</v>
       </c>
       <c r="M5" t="n">
         <v>46051.08120963781</v>
@@ -26508,10 +26508,10 @@
         <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.0812096378</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164857.0849334694</v>
+        <v>164825.1782159677</v>
       </c>
       <c r="C6" t="n">
-        <v>164857.0849334694</v>
+        <v>164825.1782159678</v>
       </c>
       <c r="D6" t="n">
-        <v>164857.0849334694</v>
+        <v>164825.1782159677</v>
       </c>
       <c r="E6" t="n">
-        <v>-315723.6292765413</v>
+        <v>-316277.5097197632</v>
       </c>
       <c r="F6" t="n">
-        <v>235411.5717141346</v>
+        <v>234857.6912709125</v>
       </c>
       <c r="G6" t="n">
-        <v>235411.5717141345</v>
+        <v>234857.6912709125</v>
       </c>
       <c r="H6" t="n">
-        <v>235411.5717141345</v>
+        <v>234857.6912709125</v>
       </c>
       <c r="I6" t="n">
-        <v>186622.5167279614</v>
+        <v>186339.6982530219</v>
       </c>
       <c r="J6" t="n">
-        <v>267263.9159739125</v>
+        <v>266981.0974989735</v>
       </c>
       <c r="K6" t="n">
-        <v>267263.9159739125</v>
+        <v>266981.0974989737</v>
       </c>
       <c r="L6" t="n">
-        <v>267263.9159739123</v>
+        <v>266981.0974989735</v>
       </c>
       <c r="M6" t="n">
-        <v>163932.7184957268</v>
+        <v>163378.8380525053</v>
       </c>
       <c r="N6" t="n">
-        <v>235411.5717141345</v>
+        <v>234857.6912709125</v>
       </c>
       <c r="O6" t="n">
-        <v>235411.5717141345</v>
+        <v>234857.6912709125</v>
       </c>
       <c r="P6" t="n">
-        <v>235411.5717141345</v>
+        <v>234857.6912709125</v>
       </c>
     </row>
   </sheetData>
@@ -26752,34 +26752,34 @@
         <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
     </row>
     <row r="4">
@@ -26801,37 +26801,37 @@
         <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="I4" t="n">
-        <v>893.33511334784</v>
+        <v>893.335113347842</v>
       </c>
       <c r="J4" t="n">
-        <v>893.33511334784</v>
+        <v>893.335113347842</v>
       </c>
       <c r="K4" t="n">
-        <v>893.33511334784</v>
+        <v>893.335113347842</v>
       </c>
       <c r="L4" t="n">
-        <v>893.33511334784</v>
+        <v>893.335113347842</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>303.2532189859058</v>
+        <v>303.253218985908</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.828675376028</v>
+        <v>286.8286753760261</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H11" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
@@ -31773,7 +31773,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
         <v>316.116681354841</v>
@@ -31782,19 +31782,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,25 +31837,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917232</v>
@@ -31864,7 +31864,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
@@ -31873,7 +31873,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
         <v>97.77787936116989</v>
@@ -31931,16 +31931,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R13" t="n">
         <v>37.84111043195198</v>
@@ -31952,7 +31952,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
@@ -32010,7 +32010,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O14" t="n">
         <v>316.116681354841</v>
@@ -32019,19 +32019,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T14" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
@@ -32101,7 +32101,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
@@ -32110,7 +32110,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K16" t="n">
         <v>97.77787936116989</v>
@@ -32168,16 +32168,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R16" t="n">
         <v>37.84111043195198</v>
@@ -32189,7 +32189,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32405,28 +32405,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R19" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,28 +32469,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32499,10 +32499,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,46 +32545,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998885</v>
@@ -32651,19 +32651,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,28 +32706,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -32739,7 +32739,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,13 +32782,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -32800,25 +32800,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
         <v>0.06604272567356906</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
@@ -32870,7 +32870,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32894,10 +32894,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
         <v>0.04590510768130049</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32976,7 +32976,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,13 +33019,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33037,25 +33037,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
         <v>0.06604272567356906</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
@@ -33107,7 +33107,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33131,10 +33131,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
         <v>0.04590510768130049</v>
@@ -33180,28 +33180,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -33213,7 +33213,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,13 +33256,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -33274,25 +33274,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
         <v>0.06604272567356906</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
@@ -33344,7 +33344,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33368,10 +33368,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
         <v>0.04590510768130049</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H32" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,46 +33493,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33590,28 +33590,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R34" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H35" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,46 +33730,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33827,28 +33827,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R37" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H38" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34064,28 +34064,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R40" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I43" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M43" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R43" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H44" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,19 +35406,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916787</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
         <v>254.3525508108055</v>
@@ -35512,7 +35512,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="N13" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
-        <v>181.7959026561159</v>
+        <v>259.9914571795427</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,19 +35643,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062835</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916797</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>184.8520211935854</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>575.5128433954891</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>383.6017480903499</v>
       </c>
       <c r="P16" t="n">
         <v>452.8039900485103</v>
@@ -35828,7 +35828,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,13 +35880,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125707</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
         <v>296.0766412766674</v>
@@ -35898,10 +35898,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548407</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916797</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L19" t="n">
-        <v>219.1019543794478</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247772</v>
+        <v>395.7952529497135</v>
       </c>
       <c r="N19" t="n">
         <v>575.5128433954891</v>
@@ -36062,10 +36062,10 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,19 +36117,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36141,7 +36141,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879471</v>
+        <v>202.6072676879467</v>
       </c>
       <c r="R20" t="n">
         <v>117.855135640546</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -36211,7 +36211,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572665</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="N22" t="n">
-        <v>270.2548228172329</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
-        <v>118.9554357048098</v>
+        <v>277.1599674523491</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J23" t="n">
         <v>598.8903663599629</v>
@@ -36363,7 +36363,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
@@ -36375,10 +36375,10 @@
         <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
-        <v>308.0256277166168</v>
+        <v>308.0256277166254</v>
       </c>
       <c r="Q23" t="n">
-        <v>754.6262434036994</v>
+        <v>754.6262434036989</v>
       </c>
       <c r="R23" t="n">
         <v>288.7178273103004</v>
@@ -36436,7 +36436,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562317</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -36448,7 +36448,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36460,7 +36460,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233622</v>
+        <v>62.326721642336</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,13 +36518,13 @@
         <v>59.50067040624559</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572664</v>
+        <v>101.9958329642695</v>
       </c>
       <c r="L25" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M25" t="n">
-        <v>152.8412163141847</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N25" t="n">
         <v>575.5128433954892</v>
@@ -36533,10 +36533,10 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485101</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q25" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J26" t="n">
-        <v>249.4183307795124</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>893.3351133478421</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>893.33511334784</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>815.8816139079649</v>
       </c>
       <c r="Q26" t="n">
-        <v>754.6262434036994</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
         <v>117.855135640546</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916767</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415859</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K28" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
-        <v>440.8028202817684</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M28" t="n">
-        <v>596.048746989336</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>575.5128433954892</v>
+        <v>508.9762036458171</v>
       </c>
       <c r="O28" t="n">
-        <v>118.95543570481</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>452.8039900485101</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q28" t="n">
         <v>240.36368292423</v>
@@ -36828,16 +36828,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J29" t="n">
-        <v>598.8903663599629</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>893.3351133478421</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
@@ -36846,16 +36846,16 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>308.0256277166168</v>
+        <v>815.8816139079649</v>
       </c>
       <c r="Q29" t="n">
-        <v>754.6262434036994</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>288.7178273103004</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916797</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L30" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -36931,7 +36931,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
         <v>62.32672164233622</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K31" t="n">
-        <v>195.6669783595417</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M31" t="n">
-        <v>596.0487469893359</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>575.5128433954892</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O31" t="n">
-        <v>542.8637682561039</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485101</v>
       </c>
       <c r="Q31" t="n">
-        <v>240.36368292423</v>
+        <v>173.8270431745586</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37065,10 +37065,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062837</v>
@@ -37080,19 +37080,19 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>893.33511334784</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>893.33511334784</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
-        <v>334.7779815081485</v>
+        <v>308.0256277166254</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879471</v>
+        <v>754.6262434036989</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.562359769168</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
@@ -37162,13 +37162,13 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P33" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
         <v>62.32672164233622</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116994</v>
+        <v>356.0124737334103</v>
       </c>
       <c r="L34" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M34" t="n">
-        <v>596.0487469893359</v>
+        <v>596.048746989336</v>
       </c>
       <c r="N34" t="n">
-        <v>492.2765695595074</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
-        <v>542.8637682561043</v>
+        <v>118.95543570481</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485101</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,25 +37302,25 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P35" t="n">
         <v>269.7982739184533</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916797</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K37" t="n">
         <v>375.3116718572664</v>
@@ -37475,19 +37475,19 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>139.4164512162879</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420766</v>
+        <v>81.10166275847541</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
@@ -37557,7 +37557,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P38" t="n">
         <v>269.7982739184533</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -37642,7 +37642,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R39" t="n">
         <v>62.32672164233622</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453262</v>
+        <v>70.13034202264448</v>
       </c>
       <c r="K40" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>474.3964477852485</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
         <v>542.8637682561043</v>
@@ -37724,7 +37724,7 @@
         <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37794,7 +37794,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P41" t="n">
         <v>269.7982739184533</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916864</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
         <v>217.9630089646689</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002367</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L43" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O43" t="n">
-        <v>542.8637682561043</v>
+        <v>277.1599674523495</v>
       </c>
       <c r="P43" t="n">
-        <v>206.0877424436756</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,25 +38013,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548407</v>
       </c>
       <c r="P44" t="n">
         <v>269.7982739184536</v>
@@ -38040,7 +38040,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916864</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P45" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R45" t="n">
         <v>62.32672164233622</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K46" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L46" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O46" t="n">
-        <v>296.1475206512696</v>
+        <v>277.1599674523495</v>
       </c>
       <c r="P46" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
